--- a/FSAE Skidpad.xlsx
+++ b/FSAE Skidpad.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Google Drive\Youtube VD\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solon\Documents\MATLAB\OpenLAP-Lap-Time-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46919A0D-FF3B-4939-96FA-D1AF0B9E2721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10830" windowHeight="5055" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,6 +273,18 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -333,18 +346,6 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -359,45 +360,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="A1:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Type" dataDxfId="9"/>
-    <tableColumn id="2" name="Section Length" dataDxfId="8"/>
-    <tableColumn id="3" name="Corner Radius" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Section Length" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Corner Radius" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Point [m]" dataDxfId="5"/>
-    <tableColumn id="2" name="Elevation [m]" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Point [m]" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Elevation [m]" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:B3" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Start Point [m]"/>
-    <tableColumn id="2" name="Grip Factor [-]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start Point [m]"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Grip Factor [-]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Start Point [m]"/>
-    <tableColumn id="1" name="Sector"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Start Point [m]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sector"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -665,20 +666,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -686,7 +687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
@@ -694,7 +695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -702,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -710,7 +711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -718,7 +719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -726,7 +727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -741,21 +742,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -766,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -777,7 +778,7 @@
         <v>9.125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -788,7 +789,7 @@
         <v>9.125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -799,7 +800,7 @@
         <v>9.125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +811,7 @@
         <v>9.125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +822,7 @@
         <v>9.125</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,20 +842,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -862,7 +863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -870,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -887,19 +888,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -907,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -915,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -929,20 +930,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -950,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -975,19 +976,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -995,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
